--- a/public/template_reimbursement_item_paid.xlsx
+++ b/public/template_reimbursement_item_paid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\ess-dev\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F43575C-6038-4EC2-AC42-E603FF512309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32523939-B169-4C89-A290-B20434409332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Employee Name:</t>
   </si>
@@ -60,12 +60,6 @@
     <t>Less Cash Advance</t>
   </si>
   <si>
-    <t>Employee Signature</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Approver Name:</t>
   </si>
   <si>
@@ -81,12 +75,6 @@
     <t>RECEIPT</t>
   </si>
   <si>
-    <t>Disbursement Payment Order</t>
-  </si>
-  <si>
-    <t>Prior Approval Signature</t>
-  </si>
-  <si>
     <t>Paid On :</t>
   </si>
   <si>
@@ -99,7 +87,10 @@
     <t>APPROVED AMOUNT</t>
   </si>
   <si>
-    <t>View details on ESS</t>
+    <t>Disbursement Order Letter</t>
+  </si>
+  <si>
+    <t>Detail Information :</t>
   </si>
 </sst>
 </file>
@@ -277,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -310,15 +301,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFC0C0C0"/>
       </left>
@@ -344,15 +326,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -368,7 +341,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -420,15 +393,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="8" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,31 +410,29 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -892,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="86" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="86" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -907,8 +877,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
-        <v>18</v>
+      <c r="A1" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -943,7 +913,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>3</v>
@@ -968,135 +938,135 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="22"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="37"/>
+      <c r="A13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="23"/>
       <c r="E13" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
     </row>
@@ -1104,102 +1074,101 @@
       <c r="D30" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="24"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E33" s="17"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="24"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E33" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="18"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="26"/>
+      <c r="F36" s="25"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E42" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="26"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="25"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="19"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="26">
